--- a/data/pca/factorExposure/factorExposure_2019-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1187396755287013</v>
+        <v>-0.072654380563225</v>
       </c>
       <c r="C2">
-        <v>0.01668598053137849</v>
+        <v>0.03451774331555679</v>
       </c>
       <c r="D2">
-        <v>0.04371606065312465</v>
+        <v>0.02036182616111106</v>
       </c>
       <c r="E2">
-        <v>0.1338404341376045</v>
+        <v>-0.0418031134781874</v>
       </c>
       <c r="F2">
-        <v>0.001753672844417803</v>
+        <v>0.1405357107003964</v>
       </c>
       <c r="G2">
-        <v>-0.102893439635855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09710509294594016</v>
+      </c>
+      <c r="H2">
+        <v>0.05379300368625073</v>
+      </c>
+      <c r="I2">
+        <v>0.0825878483696106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2077297084407686</v>
+        <v>-0.1611301007087898</v>
       </c>
       <c r="C3">
-        <v>0.1548250802620369</v>
+        <v>0.1048030036759384</v>
       </c>
       <c r="D3">
-        <v>-0.04453221331275731</v>
+        <v>-0.004376935551884459</v>
       </c>
       <c r="E3">
-        <v>0.339951066709345</v>
+        <v>0.004995510532580886</v>
       </c>
       <c r="F3">
-        <v>0.08715676966881801</v>
+        <v>0.3715709920003495</v>
       </c>
       <c r="G3">
-        <v>-0.02034227124337513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0695453017743778</v>
+      </c>
+      <c r="H3">
+        <v>0.2477236302137163</v>
+      </c>
+      <c r="I3">
+        <v>0.3551103085077125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09723364173489746</v>
+        <v>-0.07212364616671324</v>
       </c>
       <c r="C4">
-        <v>0.04897221228724889</v>
+        <v>0.04772743801660458</v>
       </c>
       <c r="D4">
-        <v>0.02246699654486301</v>
+        <v>-0.01487151107285795</v>
       </c>
       <c r="E4">
-        <v>0.07309167975227197</v>
+        <v>-0.04056930875494252</v>
       </c>
       <c r="F4">
-        <v>0.02396881668137811</v>
+        <v>0.08073370048752626</v>
       </c>
       <c r="G4">
-        <v>-0.03266150158769265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04162414244966646</v>
+      </c>
+      <c r="H4">
+        <v>0.01934382935861867</v>
+      </c>
+      <c r="I4">
+        <v>0.05714376282388669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01944375074625759</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01184980963158661</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005562474051617459</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004973008696565982</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004997889747882811</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02058371917703688</v>
+      </c>
+      <c r="H6">
+        <v>-0.001438454559822656</v>
+      </c>
+      <c r="I6">
+        <v>-0.01260022894816477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03733265403224551</v>
+        <v>-0.03350490407896847</v>
       </c>
       <c r="C7">
-        <v>0.01497501580080426</v>
+        <v>0.01752495060312567</v>
       </c>
       <c r="D7">
-        <v>0.02857549273064209</v>
+        <v>-0.0367198072997761</v>
       </c>
       <c r="E7">
-        <v>0.07761031698206712</v>
+        <v>-0.02692185609865647</v>
       </c>
       <c r="F7">
-        <v>0.0233816390481885</v>
+        <v>0.05537949477131977</v>
       </c>
       <c r="G7">
-        <v>0.06437819760416409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01365689736871184</v>
+      </c>
+      <c r="H7">
+        <v>0.04733721380052162</v>
+      </c>
+      <c r="I7">
+        <v>0.02346621162277358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04459443833104693</v>
+        <v>-0.0289107299557003</v>
       </c>
       <c r="C8">
-        <v>0.05579294554378554</v>
+        <v>0.04967038574724572</v>
       </c>
       <c r="D8">
-        <v>0.001326676618516669</v>
+        <v>-0.01278209155561797</v>
       </c>
       <c r="E8">
-        <v>0.0719736731699986</v>
+        <v>-0.02080425859735355</v>
       </c>
       <c r="F8">
-        <v>0.01782995897690328</v>
+        <v>0.07168984552038364</v>
       </c>
       <c r="G8">
-        <v>-0.004823662614553227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01860164346684292</v>
+      </c>
+      <c r="H8">
+        <v>0.03544678611995176</v>
+      </c>
+      <c r="I8">
+        <v>0.06419937239458953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08327852368591843</v>
+        <v>-0.06140115360105645</v>
       </c>
       <c r="C9">
-        <v>0.04346060591074129</v>
+        <v>0.04259275879609143</v>
       </c>
       <c r="D9">
-        <v>0.03274984345129063</v>
+        <v>-0.01849598353449124</v>
       </c>
       <c r="E9">
-        <v>0.05930372605747965</v>
+        <v>-0.03501604585869931</v>
       </c>
       <c r="F9">
-        <v>0.03815419226523401</v>
+        <v>0.0812766306331557</v>
       </c>
       <c r="G9">
-        <v>-0.03387027602849173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04072071074507011</v>
+      </c>
+      <c r="H9">
+        <v>0.01905479975331912</v>
+      </c>
+      <c r="I9">
+        <v>0.02924018276928105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01852027353393995</v>
+        <v>-0.03520141079961984</v>
       </c>
       <c r="C10">
-        <v>-0.1645021290407181</v>
+        <v>-0.1596929899929493</v>
       </c>
       <c r="D10">
-        <v>-0.02574008001734125</v>
+        <v>0.01088206138311053</v>
       </c>
       <c r="E10">
-        <v>0.06872396512555569</v>
+        <v>0.03917544458188658</v>
       </c>
       <c r="F10">
-        <v>-0.01453297171845778</v>
+        <v>0.06775540717281194</v>
       </c>
       <c r="G10">
-        <v>-0.01685163043791178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03052430048150464</v>
+      </c>
+      <c r="H10">
+        <v>-0.00440177864859457</v>
+      </c>
+      <c r="I10">
+        <v>0.09049398168969969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05835342073367703</v>
+        <v>-0.04834327749811929</v>
       </c>
       <c r="C11">
-        <v>0.0150830830851713</v>
+        <v>0.03210954292431835</v>
       </c>
       <c r="D11">
-        <v>-0.007067359143826758</v>
+        <v>0.005765637214097247</v>
       </c>
       <c r="E11">
-        <v>0.04580846317575525</v>
+        <v>-0.009917887662086095</v>
       </c>
       <c r="F11">
-        <v>-0.01044178113791811</v>
+        <v>0.03961422076502396</v>
       </c>
       <c r="G11">
-        <v>0.002027383914244861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.005720674265973397</v>
+      </c>
+      <c r="H11">
+        <v>-0.002074098991585384</v>
+      </c>
+      <c r="I11">
+        <v>0.01150281465666069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04549834497551784</v>
+        <v>-0.0450966166387378</v>
       </c>
       <c r="C12">
-        <v>0.02010852461989627</v>
+        <v>0.02911738674672826</v>
       </c>
       <c r="D12">
-        <v>-0.003494756991441578</v>
+        <v>-0.005320168627899182</v>
       </c>
       <c r="E12">
-        <v>0.0279284548710696</v>
+        <v>-0.01118211170266408</v>
       </c>
       <c r="F12">
-        <v>0.008199232362859625</v>
+        <v>0.01498152121628889</v>
       </c>
       <c r="G12">
-        <v>0.006589315668080266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001451041023891355</v>
+      </c>
+      <c r="H12">
+        <v>0.003539791612746289</v>
+      </c>
+      <c r="I12">
+        <v>0.005479444052268085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06273609254554138</v>
+        <v>-0.0421348423988255</v>
       </c>
       <c r="C13">
-        <v>0.02709321759740632</v>
+        <v>0.02621257640764802</v>
       </c>
       <c r="D13">
-        <v>-0.007484295091158296</v>
+        <v>0.0150569449648983</v>
       </c>
       <c r="E13">
-        <v>0.1124471646355805</v>
+        <v>-0.008853250801989126</v>
       </c>
       <c r="F13">
-        <v>0.0006128855841019007</v>
+        <v>0.1052296665679545</v>
       </c>
       <c r="G13">
-        <v>-0.01189158743998726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02205196179597535</v>
+      </c>
+      <c r="H13">
+        <v>0.0359650084831039</v>
+      </c>
+      <c r="I13">
+        <v>0.04758261974393627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03401005252019307</v>
+        <v>-0.02704591181161027</v>
       </c>
       <c r="C14">
-        <v>0.02398239367369792</v>
+        <v>0.02115319395787643</v>
       </c>
       <c r="D14">
-        <v>0.02532486431383405</v>
+        <v>-0.005918896841703871</v>
       </c>
       <c r="E14">
-        <v>0.03492471851129237</v>
+        <v>-0.02711889750564105</v>
       </c>
       <c r="F14">
-        <v>-0.02306626644822621</v>
+        <v>0.04047626894220093</v>
       </c>
       <c r="G14">
-        <v>0.004418319275827504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02025502364025982</v>
+      </c>
+      <c r="H14">
+        <v>0.05125373363282273</v>
+      </c>
+      <c r="I14">
+        <v>0.01644539710795473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04776905200477705</v>
+        <v>-0.04191848459291215</v>
       </c>
       <c r="C16">
-        <v>0.02540525473148137</v>
+        <v>0.03793148141896492</v>
       </c>
       <c r="D16">
-        <v>-0.008969866527600496</v>
+        <v>0.0002290126175737235</v>
       </c>
       <c r="E16">
-        <v>0.03494029216638767</v>
+        <v>-0.00911100322318149</v>
       </c>
       <c r="F16">
-        <v>0.001371207948403926</v>
+        <v>0.03422143673827586</v>
       </c>
       <c r="G16">
-        <v>0.01170702878181279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006292133354219531</v>
+      </c>
+      <c r="H16">
+        <v>0.002566832327991089</v>
+      </c>
+      <c r="I16">
+        <v>0.01458644054010212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05489580174647968</v>
+        <v>-0.047846798728118</v>
       </c>
       <c r="C19">
-        <v>0.04581959883170509</v>
+        <v>0.04424578909330964</v>
       </c>
       <c r="D19">
-        <v>-0.002827047730208523</v>
+        <v>0.001389072293987453</v>
       </c>
       <c r="E19">
-        <v>0.08447362957706621</v>
+        <v>-0.0229886088811664</v>
       </c>
       <c r="F19">
-        <v>-0.01133564373245453</v>
+        <v>0.08427466071192191</v>
       </c>
       <c r="G19">
-        <v>0.02833402285405824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.002814196890933457</v>
+      </c>
+      <c r="H19">
+        <v>0.06894119311581774</v>
+      </c>
+      <c r="I19">
+        <v>0.06301065345727094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03737044885726113</v>
+        <v>-0.01736814889446059</v>
       </c>
       <c r="C20">
-        <v>0.04089798381923995</v>
+        <v>0.02982989642704822</v>
       </c>
       <c r="D20">
-        <v>0.01213214554201075</v>
+        <v>-0.006564629061358276</v>
       </c>
       <c r="E20">
-        <v>0.06916215622754665</v>
+        <v>-0.021649003181257</v>
       </c>
       <c r="F20">
-        <v>0.002579604028290367</v>
+        <v>0.06837070503594649</v>
       </c>
       <c r="G20">
-        <v>0.01671847057195184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01025915616148366</v>
+      </c>
+      <c r="H20">
+        <v>0.06270774820626084</v>
+      </c>
+      <c r="I20">
+        <v>0.06421014159178168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03513646300131023</v>
+        <v>-0.03020555318551797</v>
       </c>
       <c r="C21">
-        <v>0.03176878289430345</v>
+        <v>0.03036197121902898</v>
       </c>
       <c r="D21">
-        <v>0.001493251829763677</v>
+        <v>-0.01293383896348682</v>
       </c>
       <c r="E21">
-        <v>0.1130600688869379</v>
+        <v>-0.007890008316625929</v>
       </c>
       <c r="F21">
-        <v>-0.007379274376349837</v>
+        <v>0.08273992361679315</v>
       </c>
       <c r="G21">
-        <v>-0.04654499948074439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03959005830381643</v>
+      </c>
+      <c r="H21">
+        <v>0.02098052687886912</v>
+      </c>
+      <c r="I21">
+        <v>-0.004021656582168662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05092862197901456</v>
+        <v>-0.04182819699543543</v>
       </c>
       <c r="C24">
-        <v>0.02364129112915365</v>
+        <v>0.0302695119314882</v>
       </c>
       <c r="D24">
-        <v>-0.004489900882600466</v>
+        <v>-0.0002305757661766317</v>
       </c>
       <c r="E24">
-        <v>0.04536668211994012</v>
+        <v>-0.01085249304342138</v>
       </c>
       <c r="F24">
-        <v>0.009125269355773994</v>
+        <v>0.03791176974434067</v>
       </c>
       <c r="G24">
-        <v>0.007667986354832323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.002571456014866601</v>
+      </c>
+      <c r="H24">
+        <v>-0.0005837267297751601</v>
+      </c>
+      <c r="I24">
+        <v>0.01283424891895351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05128569240198054</v>
+        <v>-0.04750254851030134</v>
       </c>
       <c r="C25">
-        <v>0.01443769751102817</v>
+        <v>0.0277363534477848</v>
       </c>
       <c r="D25">
-        <v>-0.003724346507869437</v>
+        <v>0.001142313103647137</v>
       </c>
       <c r="E25">
-        <v>0.04345241785524537</v>
+        <v>-0.008988287749010391</v>
       </c>
       <c r="F25">
-        <v>-0.00232308845024402</v>
+        <v>0.04428200781176519</v>
       </c>
       <c r="G25">
-        <v>0.001064973294129791</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00233449155170079</v>
+      </c>
+      <c r="H25">
+        <v>-0.003045068596759013</v>
+      </c>
+      <c r="I25">
+        <v>0.002746796933493389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02356110289335067</v>
+        <v>-0.01748903325462914</v>
       </c>
       <c r="C26">
-        <v>0.03019181724987419</v>
+        <v>0.02627025237222171</v>
       </c>
       <c r="D26">
-        <v>0.00459389562250521</v>
+        <v>0.00406626056498121</v>
       </c>
       <c r="E26">
-        <v>0.03752020132894732</v>
+        <v>-0.002000634497346936</v>
       </c>
       <c r="F26">
-        <v>-0.02843291546708308</v>
+        <v>0.04700274279468761</v>
       </c>
       <c r="G26">
-        <v>-0.005053389494742737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02014219642301098</v>
+      </c>
+      <c r="H26">
+        <v>0.03382564096633525</v>
+      </c>
+      <c r="I26">
+        <v>0.009875747783445403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1211220156424697</v>
+        <v>-0.07336289457347557</v>
       </c>
       <c r="C27">
-        <v>0.03049149348473052</v>
+        <v>0.02952574332881852</v>
       </c>
       <c r="D27">
-        <v>0.01326254591289977</v>
+        <v>-0.00538508460163515</v>
       </c>
       <c r="E27">
-        <v>0.08919492309385978</v>
+        <v>-0.0341401067578373</v>
       </c>
       <c r="F27">
-        <v>0.01847665824276732</v>
+        <v>0.06672829782398214</v>
       </c>
       <c r="G27">
-        <v>-0.01052093674742746</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01906953444602417</v>
+      </c>
+      <c r="H27">
+        <v>0.01241444210454889</v>
+      </c>
+      <c r="I27">
+        <v>0.04178623100231851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01289128355614843</v>
+        <v>-0.05126242536156389</v>
       </c>
       <c r="C28">
-        <v>-0.2467850639160866</v>
+        <v>-0.2384828059268512</v>
       </c>
       <c r="D28">
-        <v>-0.0306246694648107</v>
+        <v>0.00564302730840227</v>
       </c>
       <c r="E28">
-        <v>0.04630532638314765</v>
+        <v>0.05801109885889078</v>
       </c>
       <c r="F28">
-        <v>-0.01469812816722759</v>
+        <v>0.05669748571930843</v>
       </c>
       <c r="G28">
-        <v>-0.0441622490241426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.03415882636645463</v>
+      </c>
+      <c r="H28">
+        <v>-0.004791156770604407</v>
+      </c>
+      <c r="I28">
+        <v>0.13495363553291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02566377946336542</v>
+        <v>-0.02335194025148912</v>
       </c>
       <c r="C29">
-        <v>0.02437842451863716</v>
+        <v>0.01902102591205747</v>
       </c>
       <c r="D29">
-        <v>0.02931841657016322</v>
+        <v>-0.009208258454472172</v>
       </c>
       <c r="E29">
-        <v>0.03683587261888657</v>
+        <v>-0.02784966818578974</v>
       </c>
       <c r="F29">
-        <v>-0.01450283550477709</v>
+        <v>0.03695393980436813</v>
       </c>
       <c r="G29">
-        <v>-0.006882981733993898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02559413329918741</v>
+      </c>
+      <c r="H29">
+        <v>0.05065218086199393</v>
+      </c>
+      <c r="I29">
+        <v>0.003985144222098896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1157754360239842</v>
+        <v>-0.08916166211410265</v>
       </c>
       <c r="C30">
-        <v>0.0246792119334104</v>
+        <v>0.04981867329612916</v>
       </c>
       <c r="D30">
-        <v>0.03047723931830624</v>
+        <v>0.03713392111785599</v>
       </c>
       <c r="E30">
-        <v>0.110392701693567</v>
+        <v>-0.03416190687221128</v>
       </c>
       <c r="F30">
-        <v>-0.006862760625486911</v>
+        <v>0.104307656502868</v>
       </c>
       <c r="G30">
-        <v>0.02078510089449121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0169522332678844</v>
+      </c>
+      <c r="H30">
+        <v>0.0167152376296475</v>
+      </c>
+      <c r="I30">
+        <v>0.009772811682808417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.07067806939010833</v>
+        <v>-0.06126164921879445</v>
       </c>
       <c r="C31">
-        <v>0.01185871056978622</v>
+        <v>0.02269393508024129</v>
       </c>
       <c r="D31">
-        <v>0.01167528890027444</v>
+        <v>0.01044220775144683</v>
       </c>
       <c r="E31">
-        <v>-0.01956373454795066</v>
+        <v>-0.02437778031748935</v>
       </c>
       <c r="F31">
-        <v>-0.05386035671974199</v>
+        <v>0.0003877116581088909</v>
       </c>
       <c r="G31">
-        <v>0.008996461500227879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03757967755617701</v>
+      </c>
+      <c r="H31">
+        <v>0.03751415547084475</v>
+      </c>
+      <c r="I31">
+        <v>0.02045793751092527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07040453524140015</v>
+        <v>-0.04436937700708436</v>
       </c>
       <c r="C32">
-        <v>0.04170526424594216</v>
+        <v>0.04870934807153519</v>
       </c>
       <c r="D32">
-        <v>0.01904995464830172</v>
+        <v>-0.0147266294303427</v>
       </c>
       <c r="E32">
-        <v>0.1004322053564757</v>
+        <v>-0.03351373529689312</v>
       </c>
       <c r="F32">
-        <v>-0.008634805328983699</v>
+        <v>0.08741641238374423</v>
       </c>
       <c r="G32">
-        <v>0.0118606301859025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01728728539976815</v>
+      </c>
+      <c r="H32">
+        <v>0.03111763414615214</v>
+      </c>
+      <c r="I32">
+        <v>0.04444644490901114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06846804394373243</v>
+        <v>-0.055345147403262</v>
       </c>
       <c r="C33">
-        <v>0.04826630133372502</v>
+        <v>0.05281025229656625</v>
       </c>
       <c r="D33">
-        <v>0.009604311043765083</v>
+        <v>0.01851695252725879</v>
       </c>
       <c r="E33">
-        <v>0.07879851437164916</v>
+        <v>-0.01534636747601361</v>
       </c>
       <c r="F33">
-        <v>-0.02169169310026595</v>
+        <v>0.07776905829162038</v>
       </c>
       <c r="G33">
-        <v>-0.03067537954490601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03139785533034121</v>
+      </c>
+      <c r="H33">
+        <v>0.03491188896981288</v>
+      </c>
+      <c r="I33">
+        <v>0.02004271776562318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04994586465145866</v>
+        <v>-0.04370972099845667</v>
       </c>
       <c r="C34">
-        <v>0.02210607832757125</v>
+        <v>0.03629903959534075</v>
       </c>
       <c r="D34">
-        <v>0.001863169264118613</v>
+        <v>-0.004784649196207011</v>
       </c>
       <c r="E34">
-        <v>0.02856781192099727</v>
+        <v>-0.01870090108041271</v>
       </c>
       <c r="F34">
-        <v>0.002037248918364951</v>
+        <v>0.03149906568473232</v>
       </c>
       <c r="G34">
-        <v>0.01283545466684892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.002243523870390247</v>
+      </c>
+      <c r="H34">
+        <v>0.00709362031810722</v>
+      </c>
+      <c r="I34">
+        <v>0.00994443605769098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01604314994829887</v>
+        <v>-0.01560857183712621</v>
       </c>
       <c r="C36">
-        <v>0.002010727547099367</v>
+        <v>0.003808484234128214</v>
       </c>
       <c r="D36">
-        <v>0.009013336015213147</v>
+        <v>-0.004688212168017048</v>
       </c>
       <c r="E36">
-        <v>0.02388884379128285</v>
+        <v>-0.009996670366855982</v>
       </c>
       <c r="F36">
-        <v>-0.01787291774718855</v>
+        <v>0.02687502720998831</v>
       </c>
       <c r="G36">
-        <v>0.001297532374185196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02225896885993655</v>
+      </c>
+      <c r="H36">
+        <v>0.03206629752719529</v>
+      </c>
+      <c r="I36">
+        <v>-0.004818085234435973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04736721515373141</v>
+        <v>-0.03410399090087684</v>
       </c>
       <c r="C38">
-        <v>0.01862482644163364</v>
+        <v>0.01519847151192831</v>
       </c>
       <c r="D38">
-        <v>0.02066257148997157</v>
+        <v>-0.003728211438142517</v>
       </c>
       <c r="E38">
-        <v>0.02569763106246939</v>
+        <v>-0.01306995986933876</v>
       </c>
       <c r="F38">
-        <v>0.03025315313158823</v>
+        <v>0.04741901433890497</v>
       </c>
       <c r="G38">
-        <v>-0.00551455797172852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02328692165050054</v>
+      </c>
+      <c r="H38">
+        <v>0.01758979493916752</v>
+      </c>
+      <c r="I38">
+        <v>-0.009037993628853007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07184960840876761</v>
+        <v>-0.05401195039176247</v>
       </c>
       <c r="C39">
-        <v>0.02093806693458997</v>
+        <v>0.04512961688523158</v>
       </c>
       <c r="D39">
-        <v>0.0009562046070813768</v>
+        <v>0.00467633825069205</v>
       </c>
       <c r="E39">
-        <v>0.04335504794968317</v>
+        <v>-0.01800442230033978</v>
       </c>
       <c r="F39">
-        <v>-0.003821426515007099</v>
+        <v>0.05641177094059665</v>
       </c>
       <c r="G39">
-        <v>-0.01323463721879909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01759524062125713</v>
+      </c>
+      <c r="H39">
+        <v>0.002102651624238525</v>
+      </c>
+      <c r="I39">
+        <v>-0.007539283390358924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07819639050760901</v>
+        <v>-0.0554903673529697</v>
       </c>
       <c r="C40">
-        <v>0.04417854693842149</v>
+        <v>0.04224722972796956</v>
       </c>
       <c r="D40">
-        <v>0.007713814942331106</v>
+        <v>0.02019869797086131</v>
       </c>
       <c r="E40">
-        <v>0.1080496949072343</v>
+        <v>-0.02487431031991697</v>
       </c>
       <c r="F40">
-        <v>0.01705175487505591</v>
+        <v>0.09370056101319293</v>
       </c>
       <c r="G40">
-        <v>-0.02846801442417363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0222510867480017</v>
+      </c>
+      <c r="H40">
+        <v>0.04240045060940644</v>
+      </c>
+      <c r="I40">
+        <v>0.08219586332711501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004665296316831857</v>
+        <v>-0.003452399433441626</v>
       </c>
       <c r="C41">
-        <v>0.02283617490688108</v>
+        <v>0.01229336149022771</v>
       </c>
       <c r="D41">
-        <v>0.02788922331799842</v>
+        <v>-9.511176829434531e-06</v>
       </c>
       <c r="E41">
-        <v>0.01293982997559413</v>
+        <v>-0.01136956465773424</v>
       </c>
       <c r="F41">
-        <v>-0.02301548867240472</v>
+        <v>0.01329762193120086</v>
       </c>
       <c r="G41">
-        <v>-0.01979605441450669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03453252200499971</v>
+      </c>
+      <c r="H41">
+        <v>0.03197174135628128</v>
+      </c>
+      <c r="I41">
+        <v>0.02702431538962441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.138986060969846</v>
+        <v>-0.2232222974183132</v>
       </c>
       <c r="C42">
-        <v>0.1970479139212853</v>
+        <v>0.2741316992661611</v>
       </c>
       <c r="D42">
-        <v>-0.9295966486254333</v>
+        <v>0.05836812387105055</v>
       </c>
       <c r="E42">
-        <v>-0.1063127091856841</v>
+        <v>0.9017266826974826</v>
       </c>
       <c r="F42">
-        <v>-0.1284168014798662</v>
+        <v>-0.1676783470937617</v>
       </c>
       <c r="G42">
-        <v>0.07094555706500119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009398020247137867</v>
+      </c>
+      <c r="H42">
+        <v>-0.002460675678969878</v>
+      </c>
+      <c r="I42">
+        <v>0.06186915390365111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00806193260801886</v>
+        <v>-0.007736139761360008</v>
       </c>
       <c r="C43">
-        <v>0.02086273404028421</v>
+        <v>0.01473937152351461</v>
       </c>
       <c r="D43">
-        <v>0.01499784813808315</v>
+        <v>0.002457811589579916</v>
       </c>
       <c r="E43">
-        <v>0.03464257517433624</v>
+        <v>-0.01100161774854142</v>
       </c>
       <c r="F43">
-        <v>-0.01853268551246333</v>
+        <v>0.0286590592017526</v>
       </c>
       <c r="G43">
-        <v>0.002585979799754229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02023094273212494</v>
+      </c>
+      <c r="H43">
+        <v>0.02959321096878406</v>
+      </c>
+      <c r="I43">
+        <v>0.02155225778588885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0413125483543724</v>
+        <v>-0.0295274804550359</v>
       </c>
       <c r="C44">
-        <v>0.04925907028143626</v>
+        <v>0.04090640625968452</v>
       </c>
       <c r="D44">
-        <v>0.01259873303157051</v>
+        <v>-0.001830244034004047</v>
       </c>
       <c r="E44">
-        <v>0.1294303894604195</v>
+        <v>-0.01158605302703792</v>
       </c>
       <c r="F44">
-        <v>-0.04355677220650979</v>
+        <v>0.1210088745073331</v>
       </c>
       <c r="G44">
-        <v>-0.06577825842637668</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06082365063771616</v>
+      </c>
+      <c r="H44">
+        <v>0.0894259076798487</v>
+      </c>
+      <c r="I44">
+        <v>0.05614932506465558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02902244394152104</v>
+        <v>-0.02466033324517553</v>
       </c>
       <c r="C46">
-        <v>0.0293279631498189</v>
+        <v>0.03557096604859931</v>
       </c>
       <c r="D46">
-        <v>0.02904253824643721</v>
+        <v>0.002268021889618223</v>
       </c>
       <c r="E46">
-        <v>0.03589050397352667</v>
+        <v>-0.03116779729076266</v>
       </c>
       <c r="F46">
-        <v>-0.02595551773669566</v>
+        <v>0.05056656794645894</v>
       </c>
       <c r="G46">
-        <v>-0.01379776859411025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01984402776879341</v>
+      </c>
+      <c r="H46">
+        <v>0.05699109879070456</v>
+      </c>
+      <c r="I46">
+        <v>0.008885981217882961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0939811008951268</v>
+        <v>-0.08916643476522378</v>
       </c>
       <c r="C47">
-        <v>0.00988373085532517</v>
+        <v>0.01828710927707979</v>
       </c>
       <c r="D47">
-        <v>0.01745900175780137</v>
+        <v>0.00534828815182044</v>
       </c>
       <c r="E47">
-        <v>-0.01862622652191407</v>
+        <v>-0.02769694806097573</v>
       </c>
       <c r="F47">
-        <v>-0.02563588262736535</v>
+        <v>-0.01055311637362278</v>
       </c>
       <c r="G47">
-        <v>-0.004761583518350748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03882457003398464</v>
+      </c>
+      <c r="H47">
+        <v>0.05502667361599781</v>
+      </c>
+      <c r="I47">
+        <v>0.03523749918304921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02061818727472281</v>
+        <v>-0.02004416950888115</v>
       </c>
       <c r="C48">
-        <v>0.02457335534381565</v>
+        <v>0.01985716074369476</v>
       </c>
       <c r="D48">
-        <v>0.01480234465241371</v>
+        <v>-0.001517196974559459</v>
       </c>
       <c r="E48">
-        <v>0.03083685536061443</v>
+        <v>-0.01410603029983211</v>
       </c>
       <c r="F48">
-        <v>-0.006570153194068815</v>
+        <v>0.02791258318956458</v>
       </c>
       <c r="G48">
-        <v>-0.002037191311896664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01531530326695093</v>
+      </c>
+      <c r="H48">
+        <v>0.02092804419641387</v>
+      </c>
+      <c r="I48">
+        <v>0.01501676321605318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09481373973925702</v>
+        <v>-0.087954437773179</v>
       </c>
       <c r="C50">
-        <v>0.02888543172933175</v>
+        <v>0.03548945667054822</v>
       </c>
       <c r="D50">
-        <v>0.02010957310648872</v>
+        <v>-0.01046416112813232</v>
       </c>
       <c r="E50">
-        <v>-0.01454075106177707</v>
+        <v>-0.02721855801548054</v>
       </c>
       <c r="F50">
-        <v>-0.04338957727598329</v>
+        <v>-0.005281330366184607</v>
       </c>
       <c r="G50">
-        <v>0.01713688136727942</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004793481518426149</v>
+      </c>
+      <c r="H50">
+        <v>0.04309935033073848</v>
+      </c>
+      <c r="I50">
+        <v>0.0009411688556806492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05217301231649074</v>
+        <v>-0.03870085600952925</v>
       </c>
       <c r="C51">
-        <v>-0.01673983847368667</v>
+        <v>-0.004459409729851375</v>
       </c>
       <c r="D51">
-        <v>-0.001748515094361619</v>
+        <v>0.01220747870609314</v>
       </c>
       <c r="E51">
-        <v>0.08653498088079455</v>
+        <v>-0.008074776182175185</v>
       </c>
       <c r="F51">
-        <v>-0.05710371855569186</v>
+        <v>0.09803481438061751</v>
       </c>
       <c r="G51">
-        <v>-0.02454403032043884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04830517209220943</v>
+      </c>
+      <c r="H51">
+        <v>0.05340287185783533</v>
+      </c>
+      <c r="I51">
+        <v>0.03505077306420194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1410772993932349</v>
+        <v>-0.123880709881135</v>
       </c>
       <c r="C53">
-        <v>0.01740220049506053</v>
+        <v>0.03738643330196746</v>
       </c>
       <c r="D53">
-        <v>0.04788695098203374</v>
+        <v>0.005910565889645299</v>
       </c>
       <c r="E53">
-        <v>-0.04441301022324671</v>
+        <v>-0.05713834663730254</v>
       </c>
       <c r="F53">
-        <v>-0.03241685654009798</v>
+        <v>-0.0431351521752982</v>
       </c>
       <c r="G53">
-        <v>0.007663499279034734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02185667786848503</v>
+      </c>
+      <c r="H53">
+        <v>-0.004332950852904487</v>
+      </c>
+      <c r="I53">
+        <v>0.04896309252742261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02640354105993525</v>
+        <v>-0.02512673068960177</v>
       </c>
       <c r="C54">
-        <v>0.008700453067594096</v>
+        <v>0.003975179660590452</v>
       </c>
       <c r="D54">
-        <v>0.02755491534963267</v>
+        <v>-0.004984531666703973</v>
       </c>
       <c r="E54">
-        <v>0.03874354193184169</v>
+        <v>-0.02565216521385278</v>
       </c>
       <c r="F54">
-        <v>-0.024139500991172</v>
+        <v>0.0372187774433449</v>
       </c>
       <c r="G54">
-        <v>-0.03793706342796503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04848239325120753</v>
+      </c>
+      <c r="H54">
+        <v>0.04652545069220568</v>
+      </c>
+      <c r="I54">
+        <v>0.02090558297630771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1038037003876261</v>
+        <v>-0.09699639012150207</v>
       </c>
       <c r="C55">
-        <v>0.00485670887426184</v>
+        <v>0.03165528336500866</v>
       </c>
       <c r="D55">
-        <v>0.03541564063538183</v>
+        <v>-0.01208053851588066</v>
       </c>
       <c r="E55">
-        <v>-0.01386338645989026</v>
+        <v>-0.03733633079252609</v>
       </c>
       <c r="F55">
-        <v>0.0223855286834701</v>
+        <v>-0.02974701442049239</v>
       </c>
       <c r="G55">
-        <v>0.03674054591027023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01320285602583335</v>
+      </c>
+      <c r="H55">
+        <v>0.01190596520514498</v>
+      </c>
+      <c r="I55">
+        <v>0.02435128716184871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1765875387669074</v>
+        <v>-0.163587049718342</v>
       </c>
       <c r="C56">
-        <v>-0.01396385515072119</v>
+        <v>0.0191596702406393</v>
       </c>
       <c r="D56">
-        <v>0.08675614730124015</v>
+        <v>-0.0009614386057217865</v>
       </c>
       <c r="E56">
-        <v>-0.09792625088658094</v>
+        <v>-0.08827234331309838</v>
       </c>
       <c r="F56">
-        <v>0.01588782154750152</v>
+        <v>-0.08812148056780843</v>
       </c>
       <c r="G56">
-        <v>0.06931012382856117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.023441179786902</v>
+      </c>
+      <c r="H56">
+        <v>-0.04140230587889372</v>
+      </c>
+      <c r="I56">
+        <v>0.04703138960218876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08578789088804779</v>
+        <v>-0.06569055228143543</v>
       </c>
       <c r="C57">
-        <v>0.02937449272549921</v>
+        <v>0.0326945928693293</v>
       </c>
       <c r="D57">
-        <v>0.02387633508027975</v>
+        <v>0.01769631976183467</v>
       </c>
       <c r="E57">
-        <v>0.04681648295171578</v>
+        <v>-0.008041145196372603</v>
       </c>
       <c r="F57">
-        <v>-0.04706423250140452</v>
+        <v>0.06658711853208153</v>
       </c>
       <c r="G57">
-        <v>-0.01285453330099477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02439397183234722</v>
+      </c>
+      <c r="H57">
+        <v>0.03173192757971679</v>
+      </c>
+      <c r="I57">
+        <v>0.0167341987025581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2029714652809588</v>
+        <v>-0.2098014104310217</v>
       </c>
       <c r="C58">
-        <v>0.02221794424140841</v>
+        <v>0.09466288671737645</v>
       </c>
       <c r="D58">
-        <v>-0.002575391743617928</v>
+        <v>0.09210308275993316</v>
       </c>
       <c r="E58">
-        <v>0.1344192812156069</v>
+        <v>0.01452877739574409</v>
       </c>
       <c r="F58">
-        <v>-0.02548910195964367</v>
+        <v>0.2616198001209853</v>
       </c>
       <c r="G58">
-        <v>0.07759202143112383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.194113698967153</v>
+      </c>
+      <c r="H58">
+        <v>0.4131451798752172</v>
+      </c>
+      <c r="I58">
+        <v>-0.5267840430527266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.0186946552058801</v>
+        <v>-0.05143078193107298</v>
       </c>
       <c r="C59">
-        <v>-0.1992879958803973</v>
+        <v>-0.1953390835082154</v>
       </c>
       <c r="D59">
-        <v>-0.003198360866552545</v>
+        <v>0.0202290913496384</v>
       </c>
       <c r="E59">
-        <v>0.05788355430384051</v>
+        <v>0.02046986202134463</v>
       </c>
       <c r="F59">
-        <v>-0.00399688980944311</v>
+        <v>0.06868080867805729</v>
       </c>
       <c r="G59">
-        <v>-0.01772609558743782</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01027138381202974</v>
+      </c>
+      <c r="H59">
+        <v>-0.02649423216441526</v>
+      </c>
+      <c r="I59">
+        <v>0.04393453646375578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1864967753367526</v>
+        <v>-0.1895871431481554</v>
       </c>
       <c r="C60">
-        <v>-0.09374677710817839</v>
+        <v>-0.04717956370632203</v>
       </c>
       <c r="D60">
-        <v>0.003369276454500206</v>
+        <v>0.04958030127957672</v>
       </c>
       <c r="E60">
-        <v>0.1863719895899354</v>
+        <v>-0.008106950614689972</v>
       </c>
       <c r="F60">
-        <v>-0.0175684288222045</v>
+        <v>0.2021461225632159</v>
       </c>
       <c r="G60">
-        <v>-0.04515789277241391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05080306831047229</v>
+      </c>
+      <c r="H60">
+        <v>-0.2810846520841468</v>
+      </c>
+      <c r="I60">
+        <v>-0.07274386856202161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0427471644790903</v>
+        <v>-0.03796455710835956</v>
       </c>
       <c r="C61">
-        <v>0.01356131020796675</v>
+        <v>0.02999041656827229</v>
       </c>
       <c r="D61">
-        <v>-0.001172229055103512</v>
+        <v>-0.0009662651593073975</v>
       </c>
       <c r="E61">
-        <v>0.03904615937704167</v>
+        <v>-0.008251611162078849</v>
       </c>
       <c r="F61">
-        <v>0.003961861802220044</v>
+        <v>0.03977771221711583</v>
       </c>
       <c r="G61">
-        <v>-0.006191646219858215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01013092164670384</v>
+      </c>
+      <c r="H61">
+        <v>-0.006812872111432298</v>
+      </c>
+      <c r="I61">
+        <v>-0.02617109107897893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04374711360206743</v>
+        <v>-0.03043098743049941</v>
       </c>
       <c r="C63">
-        <v>0.01588935459083089</v>
+        <v>0.0221891152285798</v>
       </c>
       <c r="D63">
-        <v>0.01664035318103378</v>
+        <v>0.001165396007314412</v>
       </c>
       <c r="E63">
-        <v>0.04342084567370968</v>
+        <v>-0.01516690436738863</v>
       </c>
       <c r="F63">
-        <v>-0.0193446232373796</v>
+        <v>0.02925806672670109</v>
       </c>
       <c r="G63">
-        <v>0.002426983443834087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005136757494814724</v>
+      </c>
+      <c r="H63">
+        <v>0.05020877725644993</v>
+      </c>
+      <c r="I63">
+        <v>0.04214279435641415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07594023046623416</v>
+        <v>-0.05840986182844454</v>
       </c>
       <c r="C64">
-        <v>0.05341490016957114</v>
+        <v>0.04471885698526638</v>
       </c>
       <c r="D64">
-        <v>0.04615679328740865</v>
+        <v>-0.01531331234132447</v>
       </c>
       <c r="E64">
-        <v>0.05012011966158294</v>
+        <v>-0.04063065470840111</v>
       </c>
       <c r="F64">
-        <v>0.02607590362101379</v>
+        <v>0.05044631799208765</v>
       </c>
       <c r="G64">
-        <v>-0.06597962800496648</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05682235110041804</v>
+      </c>
+      <c r="H64">
+        <v>-0.008087763208436429</v>
+      </c>
+      <c r="I64">
+        <v>0.05892990740843906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.0213490201311778</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01182473515710434</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.00637562151568022</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006010064839412881</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001411651314693945</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02052722056945174</v>
+      </c>
+      <c r="H65">
+        <v>-0.005166491663871399</v>
+      </c>
+      <c r="I65">
+        <v>-0.01347873167802146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08525385654623133</v>
+        <v>-0.0672971748575372</v>
       </c>
       <c r="C66">
-        <v>0.03894358466783975</v>
+        <v>0.056479365410907</v>
       </c>
       <c r="D66">
-        <v>0.03214023597731683</v>
+        <v>0.01228343626149642</v>
       </c>
       <c r="E66">
-        <v>0.08206579650174488</v>
+        <v>-0.04818301788574827</v>
       </c>
       <c r="F66">
-        <v>-0.007406436429046316</v>
+        <v>0.06916199548688942</v>
       </c>
       <c r="G66">
-        <v>-0.02238390384078356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.009624748703284709</v>
+      </c>
+      <c r="H66">
+        <v>-0.003191269868344771</v>
+      </c>
+      <c r="I66">
+        <v>0.005684256865048303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05630419343888116</v>
+        <v>-0.04667585605646933</v>
       </c>
       <c r="C67">
-        <v>-0.0105703093743715</v>
+        <v>-0.003433130254078111</v>
       </c>
       <c r="D67">
-        <v>0.01165200530902712</v>
+        <v>0.001817850110293757</v>
       </c>
       <c r="E67">
-        <v>0.01905524502127476</v>
+        <v>-0.00909734635963492</v>
       </c>
       <c r="F67">
-        <v>0.02299873905396298</v>
+        <v>0.03646436275088936</v>
       </c>
       <c r="G67">
-        <v>-0.009517983718121983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03310209714974759</v>
+      </c>
+      <c r="H67">
+        <v>0.0006244108831599247</v>
+      </c>
+      <c r="I67">
+        <v>-0.02886647679803784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.02877376394141893</v>
+        <v>-0.06114066674935734</v>
       </c>
       <c r="C68">
-        <v>-0.246740735809848</v>
+        <v>-0.2332242258191292</v>
       </c>
       <c r="D68">
-        <v>-0.01567892715751021</v>
+        <v>0.02057654458837258</v>
       </c>
       <c r="E68">
-        <v>0.05234786886290645</v>
+        <v>0.03634818889399488</v>
       </c>
       <c r="F68">
-        <v>-0.03033946296579703</v>
+        <v>0.05775328309944325</v>
       </c>
       <c r="G68">
-        <v>-0.006371124897341178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004342320962390798</v>
+      </c>
+      <c r="H68">
+        <v>-0.0220295052980932</v>
+      </c>
+      <c r="I68">
+        <v>0.09752175182216734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07399622847085555</v>
+        <v>-0.07270584984679684</v>
       </c>
       <c r="C69">
-        <v>0.01298113993271853</v>
+        <v>0.0191559161396907</v>
       </c>
       <c r="D69">
-        <v>0.02277503359917415</v>
+        <v>0.005957104118916808</v>
       </c>
       <c r="E69">
-        <v>-0.01613855867502273</v>
+        <v>-0.03221182183237009</v>
       </c>
       <c r="F69">
-        <v>-0.02700009730714712</v>
+        <v>-0.001134573019837035</v>
       </c>
       <c r="G69">
-        <v>0.004428257626138477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02420395631129075</v>
+      </c>
+      <c r="H69">
+        <v>0.03243715499853451</v>
+      </c>
+      <c r="I69">
+        <v>0.01110653160068319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.01992413171015697</v>
+        <v>-0.05712786528371747</v>
       </c>
       <c r="C71">
-        <v>-0.2846648653185939</v>
+        <v>-0.249598546691516</v>
       </c>
       <c r="D71">
-        <v>-0.02996025632292483</v>
+        <v>0.02507707523804507</v>
       </c>
       <c r="E71">
-        <v>0.08100571968318145</v>
+        <v>0.06332688732308095</v>
       </c>
       <c r="F71">
-        <v>-0.0333258426105621</v>
+        <v>0.07451116526983123</v>
       </c>
       <c r="G71">
-        <v>-0.01666832329953485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01700714436577589</v>
+      </c>
+      <c r="H71">
+        <v>-0.02405738251457319</v>
+      </c>
+      <c r="I71">
+        <v>0.0936608729259707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1273497182841181</v>
+        <v>-0.1241563016584832</v>
       </c>
       <c r="C72">
-        <v>-0.01633485938831142</v>
+        <v>0.02768908424088188</v>
       </c>
       <c r="D72">
-        <v>0.03936414242264365</v>
+        <v>0.00696583010989069</v>
       </c>
       <c r="E72">
-        <v>0.08087450360867474</v>
+        <v>-0.06428048062708551</v>
       </c>
       <c r="F72">
-        <v>0.01379761671741013</v>
+        <v>0.0861855696521957</v>
       </c>
       <c r="G72">
-        <v>0.01185385741377843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03230026361737917</v>
+      </c>
+      <c r="H72">
+        <v>-0.008508845374745616</v>
+      </c>
+      <c r="I72">
+        <v>-0.1142196529949397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2864878718876417</v>
+        <v>-0.2733175284684705</v>
       </c>
       <c r="C73">
-        <v>-0.1862380487392656</v>
+        <v>-0.07187644263630961</v>
       </c>
       <c r="D73">
-        <v>-0.06059141298568388</v>
+        <v>0.09060016824160287</v>
       </c>
       <c r="E73">
-        <v>0.3238713591086932</v>
+        <v>0.04030177279998861</v>
       </c>
       <c r="F73">
-        <v>0.03476353249166318</v>
+        <v>0.302408992547392</v>
       </c>
       <c r="G73">
-        <v>-0.05941576246680303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1357683559413651</v>
+      </c>
+      <c r="H73">
+        <v>-0.4838747995596935</v>
+      </c>
+      <c r="I73">
+        <v>-0.2429430427172249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1598026771531319</v>
+        <v>-0.148710641761475</v>
       </c>
       <c r="C74">
-        <v>0.009938629604212412</v>
+        <v>0.03122985408345555</v>
       </c>
       <c r="D74">
-        <v>0.04058178182252817</v>
+        <v>0.01138728226766792</v>
       </c>
       <c r="E74">
-        <v>-0.03754147965505165</v>
+        <v>-0.05320907384394048</v>
       </c>
       <c r="F74">
-        <v>-0.02592251680034052</v>
+        <v>-0.06057322976508312</v>
       </c>
       <c r="G74">
-        <v>0.0780202625917065</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0233856482398223</v>
+      </c>
+      <c r="H74">
+        <v>-0.02946397858446839</v>
+      </c>
+      <c r="I74">
+        <v>0.05428789265174749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2406241678130355</v>
+        <v>-0.242274731909719</v>
       </c>
       <c r="C75">
-        <v>0.00540040841544866</v>
+        <v>0.02557065182633238</v>
       </c>
       <c r="D75">
-        <v>0.07971521673302272</v>
+        <v>0.02695560956720696</v>
       </c>
       <c r="E75">
-        <v>-0.1331506586198679</v>
+        <v>-0.1149073300344373</v>
       </c>
       <c r="F75">
-        <v>-0.04234454614801434</v>
+        <v>-0.1468230616211849</v>
       </c>
       <c r="G75">
-        <v>0.02972952484660166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01005696244063636</v>
+      </c>
+      <c r="H75">
+        <v>-0.02062558463056659</v>
+      </c>
+      <c r="I75">
+        <v>0.08130865058481827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2490380651690609</v>
+        <v>-0.2626324095336231</v>
       </c>
       <c r="C76">
-        <v>-0.01724875269892666</v>
+        <v>0.01377016984328953</v>
       </c>
       <c r="D76">
-        <v>0.1084885194446396</v>
+        <v>-0.01259154824650324</v>
       </c>
       <c r="E76">
-        <v>-0.1281498054520168</v>
+        <v>-0.1388989909793998</v>
       </c>
       <c r="F76">
-        <v>-0.01145112972005651</v>
+        <v>-0.1830738903608157</v>
       </c>
       <c r="G76">
-        <v>0.0804791235183179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05674028572352363</v>
+      </c>
+      <c r="H76">
+        <v>-0.03835596006655599</v>
+      </c>
+      <c r="I76">
+        <v>0.05370755901812061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1361887499203171</v>
+        <v>-0.122276545315426</v>
       </c>
       <c r="C77">
-        <v>0.06215345345779012</v>
+        <v>0.07602442763424007</v>
       </c>
       <c r="D77">
-        <v>-0.03497348290843182</v>
+        <v>0.006485510661421991</v>
       </c>
       <c r="E77">
-        <v>0.1526529136697912</v>
+        <v>0.02929844870234276</v>
       </c>
       <c r="F77">
-        <v>0.03471297819983456</v>
+        <v>0.1560738527378067</v>
       </c>
       <c r="G77">
-        <v>-0.03768486536197056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02145793529183915</v>
+      </c>
+      <c r="H77">
+        <v>0.1945816993118991</v>
+      </c>
+      <c r="I77">
+        <v>0.2834175288887472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08736581219612632</v>
+        <v>-0.07387634164145637</v>
       </c>
       <c r="C78">
-        <v>0.05249167153916906</v>
+        <v>0.07683597784828346</v>
       </c>
       <c r="D78">
-        <v>-0.01290754014967799</v>
+        <v>-0.006420329885342142</v>
       </c>
       <c r="E78">
-        <v>0.05494257281427295</v>
+        <v>-0.0142742954260856</v>
       </c>
       <c r="F78">
-        <v>-0.007917822188720128</v>
+        <v>0.07601732358227012</v>
       </c>
       <c r="G78">
-        <v>0.001770134632256148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004253294804890664</v>
+      </c>
+      <c r="H78">
+        <v>0.02201635141614163</v>
+      </c>
+      <c r="I78">
+        <v>0.04184732916751737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05657049660503973</v>
+        <v>-0.1392706985216507</v>
       </c>
       <c r="C80">
-        <v>0.01113200552223264</v>
+        <v>-0.04913383116558847</v>
       </c>
       <c r="D80">
-        <v>-0.1061976793027573</v>
+        <v>-0.9733075481359134</v>
       </c>
       <c r="E80">
-        <v>-0.07631485763406119</v>
+        <v>0.064139248553456</v>
       </c>
       <c r="F80">
-        <v>0.9524409739751892</v>
+        <v>0.04670449074353912</v>
       </c>
       <c r="G80">
-        <v>-0.1229273703113144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04637393095642881</v>
+      </c>
+      <c r="H80">
+        <v>-0.04239237918295902</v>
+      </c>
+      <c r="I80">
+        <v>-0.07772607777766792</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1663892013357975</v>
+        <v>-0.1776124913509367</v>
       </c>
       <c r="C81">
-        <v>-0.01132922228237456</v>
+        <v>0.005157986139554541</v>
       </c>
       <c r="D81">
-        <v>0.05489162596980875</v>
+        <v>0.005801882309606071</v>
       </c>
       <c r="E81">
-        <v>-0.1690734189691873</v>
+        <v>-0.08581633040334642</v>
       </c>
       <c r="F81">
-        <v>-0.02117033717504677</v>
+        <v>-0.1579866482532606</v>
       </c>
       <c r="G81">
-        <v>0.08315933452681123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.0279879594345445</v>
+      </c>
+      <c r="H81">
+        <v>-0.002055609104905778</v>
+      </c>
+      <c r="I81">
+        <v>0.03896327894380221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09055032898424385</v>
+        <v>-0.0683714091579553</v>
       </c>
       <c r="C83">
-        <v>0.07407203705687949</v>
+        <v>0.05753049521130991</v>
       </c>
       <c r="D83">
-        <v>-0.06031547698436093</v>
+        <v>0.01344873042270291</v>
       </c>
       <c r="E83">
-        <v>0.02154288625318255</v>
+        <v>0.03455675948225641</v>
       </c>
       <c r="F83">
-        <v>-0.04083658911913481</v>
+        <v>0.04628624993876072</v>
       </c>
       <c r="G83">
-        <v>-0.04375181356788608</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05287603098551719</v>
+      </c>
+      <c r="H83">
+        <v>0.03398800051265464</v>
+      </c>
+      <c r="I83">
+        <v>0.05157715915529347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.238553300406884</v>
+        <v>-0.2510318888650919</v>
       </c>
       <c r="C85">
-        <v>0.05587674590147219</v>
+        <v>0.05503228077505725</v>
       </c>
       <c r="D85">
-        <v>0.06639890961200888</v>
+        <v>0.006699023855027204</v>
       </c>
       <c r="E85">
-        <v>-0.1619423830627544</v>
+        <v>-0.1110849944834408</v>
       </c>
       <c r="F85">
-        <v>0.002976343745626453</v>
+        <v>-0.1883084071890074</v>
       </c>
       <c r="G85">
-        <v>0.07535574086169174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01812746696235259</v>
+      </c>
+      <c r="H85">
+        <v>0.01924319772295893</v>
+      </c>
+      <c r="I85">
+        <v>0.07492201526293982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0409299613976218</v>
+        <v>-0.02405444759993239</v>
       </c>
       <c r="C86">
-        <v>0.04577189554227579</v>
+        <v>0.05175781618148437</v>
       </c>
       <c r="D86">
-        <v>0.003143485106795113</v>
+        <v>0.0007071864647567929</v>
       </c>
       <c r="E86">
-        <v>0.06958346319415316</v>
+        <v>-0.01821398577536362</v>
       </c>
       <c r="F86">
-        <v>0.003864046567342184</v>
+        <v>0.07827720741666601</v>
       </c>
       <c r="G86">
-        <v>0.006657965367607378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005465092468955283</v>
+      </c>
+      <c r="H86">
+        <v>0.05885058189177734</v>
+      </c>
+      <c r="I86">
+        <v>0.03841392837477476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02689327494935047</v>
+        <v>-0.03284403152823653</v>
       </c>
       <c r="C87">
-        <v>-0.05614759737320741</v>
+        <v>-0.008704780351294539</v>
       </c>
       <c r="D87">
-        <v>-0.0008484144595415881</v>
+        <v>0.001753261196659134</v>
       </c>
       <c r="E87">
-        <v>0.09440955626385236</v>
+        <v>-0.002097738180036936</v>
       </c>
       <c r="F87">
-        <v>0.003347330242501969</v>
+        <v>0.1020922480845258</v>
       </c>
       <c r="G87">
-        <v>0.01956767543408678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0220434973695917</v>
+      </c>
+      <c r="H87">
+        <v>0.005541399607574342</v>
+      </c>
+      <c r="I87">
+        <v>0.002948668974549829</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03204518509218796</v>
+        <v>-0.03111111487495877</v>
       </c>
       <c r="C88">
-        <v>0.02546540513778032</v>
+        <v>0.01167236885549119</v>
       </c>
       <c r="D88">
-        <v>-0.0003772739922496842</v>
+        <v>-0.008645855383088159</v>
       </c>
       <c r="E88">
-        <v>-0.01048548276226599</v>
+        <v>-0.008250277084778278</v>
       </c>
       <c r="F88">
-        <v>0.001494449590571245</v>
+        <v>-0.01053519420973175</v>
       </c>
       <c r="G88">
-        <v>-0.01149837410230029</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04796000883357087</v>
+      </c>
+      <c r="H88">
+        <v>0.02918962945669884</v>
+      </c>
+      <c r="I88">
+        <v>-0.003243701982944141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.02225130890733079</v>
+        <v>-0.09231202100924051</v>
       </c>
       <c r="C89">
-        <v>-0.3853300797350477</v>
+        <v>-0.3829181339159569</v>
       </c>
       <c r="D89">
-        <v>-0.08733420354424723</v>
+        <v>0.05195195312909363</v>
       </c>
       <c r="E89">
-        <v>0.002374706662050614</v>
+        <v>0.08295460078129127</v>
       </c>
       <c r="F89">
-        <v>-0.03807904832867837</v>
+        <v>0.03214299952687676</v>
       </c>
       <c r="G89">
-        <v>-0.03017360112017281</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04234591869783344</v>
+      </c>
+      <c r="H89">
+        <v>0.04774517259255244</v>
+      </c>
+      <c r="I89">
+        <v>0.18588581759785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.01253920450010413</v>
+        <v>-0.0592814240480088</v>
       </c>
       <c r="C90">
-        <v>-0.2912296911105858</v>
+        <v>-0.3169535979756327</v>
       </c>
       <c r="D90">
-        <v>-0.0497558134054916</v>
+        <v>0.02384442918424136</v>
       </c>
       <c r="E90">
-        <v>0.05475665704215363</v>
+        <v>0.06826212458032786</v>
       </c>
       <c r="F90">
-        <v>-0.0355148094774118</v>
+        <v>0.03409176241078126</v>
       </c>
       <c r="G90">
-        <v>-0.02932320375199897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01792608213897061</v>
+      </c>
+      <c r="H90">
+        <v>0.006662349695861083</v>
+      </c>
+      <c r="I90">
+        <v>0.1524418371348069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2801058183594882</v>
+        <v>-0.2885837783517265</v>
       </c>
       <c r="C91">
-        <v>0.04903307465857964</v>
+        <v>0.05288306130237231</v>
       </c>
       <c r="D91">
-        <v>0.08335279242414288</v>
+        <v>0.01325291235922212</v>
       </c>
       <c r="E91">
-        <v>-0.2674298037543303</v>
+        <v>-0.1037861117981905</v>
       </c>
       <c r="F91">
-        <v>0.01765932386973552</v>
+        <v>-0.2733267386564249</v>
       </c>
       <c r="G91">
-        <v>0.06676911646642104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03347862069623415</v>
+      </c>
+      <c r="H91">
+        <v>-0.01051467882761485</v>
+      </c>
+      <c r="I91">
+        <v>0.083609544280039</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05643937812119542</v>
+        <v>-0.1245597233550231</v>
       </c>
       <c r="C92">
-        <v>-0.4094072357147536</v>
+        <v>-0.4152758235960779</v>
       </c>
       <c r="D92">
-        <v>-0.157889074393756</v>
+        <v>0.009181702455908965</v>
       </c>
       <c r="E92">
-        <v>-0.1069512454746955</v>
+        <v>0.1116111954176029</v>
       </c>
       <c r="F92">
-        <v>0.07682959256702816</v>
+        <v>-0.1078958046675749</v>
       </c>
       <c r="G92">
-        <v>0.01482118231445548</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07381998272066381</v>
+      </c>
+      <c r="H92">
+        <v>0.4504644998219306</v>
+      </c>
+      <c r="I92">
+        <v>-0.3715698076467449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.007403368994507453</v>
+        <v>-0.07369434288063004</v>
       </c>
       <c r="C93">
-        <v>-0.3674202124706789</v>
+        <v>-0.3894567771593541</v>
       </c>
       <c r="D93">
-        <v>-0.0761879384700825</v>
+        <v>0.04414771561353965</v>
       </c>
       <c r="E93">
-        <v>-0.02533492414192777</v>
+        <v>0.107782657159333</v>
       </c>
       <c r="F93">
-        <v>0.01341218571253766</v>
+        <v>0.002837130136112281</v>
       </c>
       <c r="G93">
-        <v>-0.02802108745683443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04117314777519395</v>
+      </c>
+      <c r="H93">
+        <v>-0.02221665101366545</v>
+      </c>
+      <c r="I93">
+        <v>0.09530534955719937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2828637624328908</v>
+        <v>-0.3104148159945428</v>
       </c>
       <c r="C94">
-        <v>-0.1038103015531699</v>
+        <v>-0.04458553099544794</v>
       </c>
       <c r="D94">
-        <v>0.05577360861437476</v>
+        <v>0.04212610031802878</v>
       </c>
       <c r="E94">
-        <v>-0.3722360919564722</v>
+        <v>-0.1356706068908257</v>
       </c>
       <c r="F94">
-        <v>0.005846255573728413</v>
+        <v>-0.3359092635582776</v>
       </c>
       <c r="G94">
-        <v>0.3736479083260114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2077531856055055</v>
+      </c>
+      <c r="H94">
+        <v>0.1011555094340465</v>
+      </c>
+      <c r="I94">
+        <v>-0.02505403333235274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1798511566164952</v>
+        <v>-0.1366565142099221</v>
       </c>
       <c r="C95">
-        <v>0.02993048285962363</v>
+        <v>0.06120094382075911</v>
       </c>
       <c r="D95">
-        <v>0.01266356788359357</v>
+        <v>0.09201929851315802</v>
       </c>
       <c r="E95">
-        <v>-0.3327107985083344</v>
+        <v>-0.036810889679899</v>
       </c>
       <c r="F95">
-        <v>-0.1411357500190765</v>
+        <v>-0.07910011759202905</v>
       </c>
       <c r="G95">
-        <v>-0.8621019235492683</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9058902533358918</v>
+      </c>
+      <c r="H95">
+        <v>-0.09175023463223511</v>
+      </c>
+      <c r="I95">
+        <v>-0.2119722230786926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2127722884319422</v>
+        <v>-0.2094426325589151</v>
       </c>
       <c r="C98">
-        <v>-0.1050032999190901</v>
+        <v>-0.0568927815240263</v>
       </c>
       <c r="D98">
-        <v>-0.03110924705626376</v>
+        <v>0.0643201941552162</v>
       </c>
       <c r="E98">
-        <v>0.09111904575281364</v>
+        <v>0.03163660593383183</v>
       </c>
       <c r="F98">
-        <v>-0.03986130215205301</v>
+        <v>0.1603053129293902</v>
       </c>
       <c r="G98">
-        <v>-0.04629013625816172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0555750451683543</v>
+      </c>
+      <c r="H98">
+        <v>-0.3239639962709295</v>
+      </c>
+      <c r="I98">
+        <v>-0.1606632368235859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02560061843637872</v>
+        <v>-0.01745064528353672</v>
       </c>
       <c r="C101">
-        <v>0.02407978039010211</v>
+        <v>0.02886993773141287</v>
       </c>
       <c r="D101">
-        <v>0.03063419651799998</v>
+        <v>-0.004986271479056634</v>
       </c>
       <c r="E101">
-        <v>0.03768109845654549</v>
+        <v>-0.03472766505646607</v>
       </c>
       <c r="F101">
-        <v>-0.01414927326443121</v>
+        <v>0.0684856283899634</v>
       </c>
       <c r="G101">
-        <v>-0.006862215907473859</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.00723156862162381</v>
+      </c>
+      <c r="H101">
+        <v>0.1150964560315195</v>
+      </c>
+      <c r="I101">
+        <v>-0.09780848659578878</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1110148186818753</v>
+        <v>-0.1182894245078135</v>
       </c>
       <c r="C102">
-        <v>0.02862173095655566</v>
+        <v>0.02544298906630754</v>
       </c>
       <c r="D102">
-        <v>0.03709795876687266</v>
+        <v>-0.005221695695837439</v>
       </c>
       <c r="E102">
-        <v>-0.09475406705358543</v>
+        <v>-0.05530076606062848</v>
       </c>
       <c r="F102">
-        <v>0.02171140596421062</v>
+        <v>-0.1083564892621564</v>
       </c>
       <c r="G102">
-        <v>0.01785392720992514</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001198391629926947</v>
+      </c>
+      <c r="H102">
+        <v>-0.001433333818840345</v>
+      </c>
+      <c r="I102">
+        <v>0.06740514995140094</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02058751047477094</v>
+        <v>-0.02936497682611186</v>
       </c>
       <c r="C103">
-        <v>0.006095010640033068</v>
+        <v>0.006843585692789493</v>
       </c>
       <c r="D103">
-        <v>0.01018882909693901</v>
+        <v>-0.008817999000479727</v>
       </c>
       <c r="E103">
-        <v>-0.03256256036966273</v>
+        <v>-0.02057268357666183</v>
       </c>
       <c r="F103">
-        <v>-0.006617324568572799</v>
+        <v>-0.02611038071873766</v>
       </c>
       <c r="G103">
-        <v>0.009117352409921266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009716312082623668</v>
+      </c>
+      <c r="H103">
+        <v>0.01438179555410901</v>
+      </c>
+      <c r="I103">
+        <v>0.02135423744198765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
